--- a/build/hello.xlsx
+++ b/build/hello.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="10755" windowHeight="9630"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,161 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+  <si>
+    <t xml:space="preserve"> A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F</t>
+  </si>
+  <si>
+    <t>000-00F</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>010-01F</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>020-02F</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>0E</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>030-03F</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>040-04F</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>050-05F</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>060-06F</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>6E</t>
+  </si>
+  <si>
+    <t>070-07F</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>080-08F</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>0F</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>090-09F</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>0A0-0AF</t>
+  </si>
+  <si>
+    <t>0B0-0BF</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>0C0-0CF</t>
+  </si>
+  <si>
+    <t>0D0-0DF</t>
+  </si>
+  <si>
+    <t>0E0-0EF</t>
+  </si>
+  <si>
+    <t>0F0-0FF</t>
+  </si>
+  <si>
+    <t>100-10F</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42,12 +197,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF962D"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF962D"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF962D"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF962D"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -56,9 +226,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,12 +530,949 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
+        <v>80</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>96</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>96</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>42</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="1">
+        <v>56</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>54</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1">
+        <v>12</v>
+      </c>
+      <c r="P7" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1">
+        <v>64</v>
+      </c>
+      <c r="L8" s="1">
+        <v>69</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>90</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1">
+        <v>94</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1">
+        <v>46</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1">
+        <v>30</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1">
+        <v>8</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1">
+        <v>8</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
+        <v>11</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
